--- a/z.ERP/trunk/z.ERP.Web/File/Template/终端密钥查询.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/终端密钥查询.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDC8A2-757E-43A1-A150-D56CF3FE61BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C9A18F-9A95-47EF-A26D-ECD465991CEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="2600" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -527,29 +527,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -575,7 +575,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="H2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
